--- a/Code/Results/Cases/Case_4_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_144/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.159467523968004</v>
+        <v>1.613131879977203</v>
       </c>
       <c r="C2">
-        <v>0.0634943434131614</v>
+        <v>0.03254137084699948</v>
       </c>
       <c r="D2">
-        <v>0.3109638795921228</v>
+        <v>0.5360727841023305</v>
       </c>
       <c r="E2">
-        <v>0.08307671685890128</v>
+        <v>0.1708840338005366</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.808335086435051</v>
+        <v>4.334273712616181</v>
       </c>
       <c r="H2">
-        <v>2.224051152783431</v>
+        <v>3.122628807543634</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02512110795760236</v>
+        <v>0.05983613487714567</v>
       </c>
       <c r="K2">
-        <v>0.8502978704486281</v>
+        <v>0.9464354327745923</v>
       </c>
       <c r="L2">
-        <v>0.257259841341849</v>
+        <v>0.4661599263023533</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.034081106211232</v>
+        <v>1.59662224576212</v>
       </c>
       <c r="C3">
-        <v>0.0589397819896007</v>
+        <v>0.03108710629339839</v>
       </c>
       <c r="D3">
-        <v>0.2903795002100367</v>
+        <v>0.5334613920627191</v>
       </c>
       <c r="E3">
-        <v>0.07968765709693315</v>
+        <v>0.1706915957518476</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.565664836757747</v>
+        <v>4.269737376638943</v>
       </c>
       <c r="H3">
-        <v>2.115549052242898</v>
+        <v>3.096292906208873</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02509441301662818</v>
+        <v>0.0598931742378328</v>
       </c>
       <c r="K3">
-        <v>0.7451033540185392</v>
+        <v>0.9307856508188763</v>
       </c>
       <c r="L3">
-        <v>0.2376378452766801</v>
+        <v>0.4643624135668034</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9590224085762884</v>
+        <v>1.587566230612936</v>
       </c>
       <c r="C4">
-        <v>0.05614759255920987</v>
+        <v>0.03017347245391022</v>
       </c>
       <c r="D4">
-        <v>0.2781480627065918</v>
+        <v>0.5320724504480552</v>
       </c>
       <c r="E4">
-        <v>0.07769643754897615</v>
+        <v>0.1706252048773784</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.420281551707603</v>
+        <v>4.231067275010247</v>
       </c>
       <c r="H4">
-        <v>2.050849666993656</v>
+        <v>3.080752974257052</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02508657095392408</v>
+        <v>0.05993340117343315</v>
       </c>
       <c r="K4">
-        <v>0.6819433031252942</v>
+        <v>0.9219384899686958</v>
       </c>
       <c r="L4">
-        <v>0.2259859921245848</v>
+        <v>0.4634856035968582</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9288793265500033</v>
+        <v>1.584147832129872</v>
       </c>
       <c r="C5">
-        <v>0.05500916432286473</v>
+        <v>0.02979589736936816</v>
       </c>
       <c r="D5">
-        <v>0.273259075595476</v>
+        <v>0.5315604184872456</v>
       </c>
       <c r="E5">
-        <v>0.07690629216545375</v>
+        <v>0.1706111845121221</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.361865433939613</v>
+        <v>4.215548349340452</v>
       </c>
       <c r="H5">
-        <v>2.024929454477927</v>
+        <v>3.074578592190903</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02508546876312145</v>
+        <v>0.05995110500261447</v>
       </c>
       <c r="K5">
-        <v>0.6565299061573455</v>
+        <v>0.9185247973528163</v>
       </c>
       <c r="L5">
-        <v>0.2213303443878374</v>
+        <v>0.463185395522288</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.923899757719596</v>
+        <v>1.58359664350121</v>
       </c>
       <c r="C6">
-        <v>0.05482004708500554</v>
+        <v>0.02973288192321633</v>
       </c>
       <c r="D6">
-        <v>0.2724528299957001</v>
+        <v>0.5314786571502879</v>
       </c>
       <c r="E6">
-        <v>0.07677634006275014</v>
+        <v>0.1706096442043545</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.352213279100425</v>
+        <v>4.212985882648127</v>
       </c>
       <c r="H6">
-        <v>2.020651262412969</v>
+        <v>3.073562892224004</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.0250854106232179</v>
+        <v>0.05995412396037558</v>
       </c>
       <c r="K6">
-        <v>0.6523286837241926</v>
+        <v>0.9179695290710441</v>
       </c>
       <c r="L6">
-        <v>0.2205626729848973</v>
+        <v>0.4631389963793993</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9586141431114754</v>
+        <v>1.587519027327659</v>
       </c>
       <c r="C7">
-        <v>0.05613224382222626</v>
+        <v>0.03016840172158197</v>
       </c>
       <c r="D7">
-        <v>0.278081750690987</v>
+        <v>0.5320653264105886</v>
       </c>
       <c r="E7">
-        <v>0.07768569675601356</v>
+        <v>0.1706249629945376</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.419490478706564</v>
+        <v>4.230857012885906</v>
       </c>
       <c r="H7">
-        <v>2.050498342977363</v>
+        <v>3.080669063929378</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.02508654768401897</v>
+        <v>0.05993363462240175</v>
       </c>
       <c r="K7">
-        <v>0.6815992979378933</v>
+        <v>0.9218916759184737</v>
       </c>
       <c r="L7">
-        <v>0.2259228385183221</v>
+        <v>0.4634813236245421</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.115808165189264</v>
+        <v>1.607215099580458</v>
       </c>
       <c r="C8">
-        <v>0.06192197959655843</v>
+        <v>0.03204420571842448</v>
       </c>
       <c r="D8">
-        <v>0.3037774204875063</v>
+        <v>0.5351278884634354</v>
       </c>
       <c r="E8">
-        <v>0.08188877078665868</v>
+        <v>0.1708069468786846</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.723861126837704</v>
+        <v>4.311822766586147</v>
       </c>
       <c r="H8">
-        <v>2.1862172193822</v>
+        <v>3.11341717883866</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02511009413986542</v>
+        <v>0.0598547232127169</v>
       </c>
       <c r="K8">
-        <v>0.8137083200953441</v>
+        <v>0.9408812624154166</v>
       </c>
       <c r="L8">
-        <v>0.2504075592107</v>
+        <v>0.4654930852100563</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.441406239041441</v>
+        <v>1.654413203001923</v>
       </c>
       <c r="C9">
-        <v>0.07339338727783229</v>
+        <v>0.03556087880696168</v>
       </c>
       <c r="D9">
-        <v>0.3577466212279887</v>
+        <v>0.5428342081960267</v>
       </c>
       <c r="E9">
-        <v>0.09090454203603571</v>
+        <v>0.1715739679647328</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.353413974915753</v>
+        <v>4.478224038981551</v>
       </c>
       <c r="H9">
-        <v>2.469470185686248</v>
+        <v>3.182654660653043</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02522687112775657</v>
+        <v>0.059741178643268</v>
       </c>
       <c r="K9">
-        <v>1.085836314989564</v>
+        <v>0.9841683127907004</v>
       </c>
       <c r="L9">
-        <v>0.3019128265049318</v>
+        <v>0.4712368892178347</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.69432666521422</v>
+        <v>1.694320666551278</v>
       </c>
       <c r="C10">
-        <v>0.08202259625984709</v>
+        <v>0.03804962614378837</v>
       </c>
       <c r="D10">
-        <v>0.4001129770052216</v>
+        <v>0.5495327882580199</v>
       </c>
       <c r="E10">
-        <v>0.09809512638562268</v>
+        <v>0.1723869781512022</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.841974086055473</v>
+        <v>4.605207976676638</v>
       </c>
       <c r="H10">
-        <v>2.690863143042122</v>
+        <v>3.236612618881139</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.02535996938300755</v>
+        <v>0.05968275524433153</v>
       </c>
       <c r="K10">
-        <v>1.296378600022564</v>
+        <v>1.019669660551727</v>
       </c>
       <c r="L10">
-        <v>0.3424165845056422</v>
+        <v>0.4765528716263105</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.813148425747045</v>
+        <v>1.713613018287987</v>
       </c>
       <c r="C11">
-        <v>0.0860248892098241</v>
+        <v>0.03916200327206099</v>
       </c>
       <c r="D11">
-        <v>0.4201092456318918</v>
+        <v>0.5528053819309093</v>
       </c>
       <c r="E11">
-        <v>0.1015131164908745</v>
+        <v>0.1728109128445965</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>5.07140893588587</v>
+        <v>4.664021043613502</v>
       </c>
       <c r="H11">
-        <v>2.795179552461661</v>
+        <v>3.261837167379724</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.02543186006244191</v>
+        <v>0.0596615807053773</v>
       </c>
       <c r="K11">
-        <v>1.395129032443236</v>
+        <v>1.036626118356025</v>
       </c>
       <c r="L11">
-        <v>0.3615551262461594</v>
+        <v>0.4792092389602089</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.858758376115674</v>
+        <v>1.72108220831015</v>
       </c>
       <c r="C12">
-        <v>0.08755463573423583</v>
+        <v>0.03958045059507498</v>
       </c>
       <c r="D12">
-        <v>0.4277977748739943</v>
+        <v>0.5540770231017405</v>
       </c>
       <c r="E12">
-        <v>0.1028307649939002</v>
+        <v>0.1729792124715281</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>5.159465490962361</v>
+        <v>4.686443790066505</v>
       </c>
       <c r="H12">
-        <v>2.835266242848036</v>
+        <v>3.271487077020822</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.02546081471591144</v>
+        <v>0.05965433726594505</v>
       </c>
       <c r="K12">
-        <v>1.433013249764258</v>
+        <v>1.043163227420166</v>
       </c>
       <c r="L12">
-        <v>0.3689174930694321</v>
+        <v>0.4802493545733597</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.848906866494161</v>
+        <v>1.719466309863378</v>
       </c>
       <c r="C13">
-        <v>0.08722449368269736</v>
+        <v>0.03949045346912783</v>
       </c>
       <c r="D13">
-        <v>0.426136526074032</v>
+        <v>0.5538017126957016</v>
       </c>
       <c r="E13">
-        <v>0.1025459106766569</v>
+        <v>0.1729426210095752</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>5.140446284810366</v>
+        <v>4.68160789745707</v>
       </c>
       <c r="H13">
-        <v>2.826605738211015</v>
+        <v>3.269404436295645</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.02545450010507899</v>
+        <v>0.05965586283796398</v>
       </c>
       <c r="K13">
-        <v>1.42483137016751</v>
+        <v>1.041750180847401</v>
       </c>
       <c r="L13">
-        <v>0.3673265469679592</v>
+        <v>0.4800238261839098</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.816888016353033</v>
+        <v>1.714224234793477</v>
       </c>
       <c r="C14">
-        <v>0.08615043926192101</v>
+        <v>0.03919648469101134</v>
       </c>
       <c r="D14">
-        <v>0.4207393778525272</v>
+        <v>0.5529093518049706</v>
       </c>
       <c r="E14">
-        <v>0.1016210392305155</v>
+        <v>0.1728246034156946</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>5.078628998510681</v>
+        <v>4.665862734737175</v>
       </c>
       <c r="H14">
-        <v>2.798465393306401</v>
+        <v>3.262629106992449</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0254342068706741</v>
+        <v>0.05966096926431419</v>
       </c>
       <c r="K14">
-        <v>1.398235598240433</v>
+        <v>1.037161603720648</v>
       </c>
       <c r="L14">
-        <v>0.3621584511868718</v>
+        <v>0.4792941245127906</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.797357907940551</v>
+        <v>1.711034615087243</v>
       </c>
       <c r="C15">
-        <v>0.08549449367271933</v>
+        <v>0.03901605922456497</v>
       </c>
       <c r="D15">
-        <v>0.4174490128109198</v>
+        <v>0.5523669711550951</v>
       </c>
       <c r="E15">
-        <v>0.1010576362396627</v>
+        <v>0.1727533250337139</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>5.040921537994905</v>
+        <v>4.656238126251822</v>
       </c>
       <c r="H15">
-        <v>2.781306801522874</v>
+        <v>3.258491783566114</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.02542200529048699</v>
+        <v>0.05966419795440636</v>
       </c>
       <c r="K15">
-        <v>1.382010634303697</v>
+        <v>1.03436608501309</v>
       </c>
       <c r="L15">
-        <v>0.3590082151669804</v>
+        <v>0.4788516150222506</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.686643247946648</v>
+        <v>1.693082763035278</v>
       </c>
       <c r="C16">
-        <v>0.08176284090860264</v>
+        <v>0.03797653676435431</v>
       </c>
       <c r="D16">
-        <v>0.3988217582420504</v>
+        <v>0.5493234492900001</v>
       </c>
       <c r="E16">
-        <v>0.09787489244014935</v>
+        <v>0.1723603603227701</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.827136313517116</v>
+        <v>4.601385557823534</v>
       </c>
       <c r="H16">
-        <v>2.684123827933547</v>
+        <v>3.234977820925423</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0253555077233063</v>
+        <v>0.05968424759355884</v>
       </c>
       <c r="K16">
-        <v>1.289990006379639</v>
+        <v>1.018577754409478</v>
       </c>
       <c r="L16">
-        <v>0.3411812213703769</v>
+        <v>0.4763840602158211</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.619737708168657</v>
+        <v>1.682361352523174</v>
       </c>
       <c r="C17">
-        <v>0.07949537164982701</v>
+        <v>0.0373338009414681</v>
       </c>
       <c r="D17">
-        <v>0.3875882352589031</v>
+        <v>0.5475140510740744</v>
       </c>
       <c r="E17">
-        <v>0.0959615132691205</v>
+        <v>0.1721331337140484</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.697922397958422</v>
+        <v>4.568004191476035</v>
       </c>
       <c r="H17">
-        <v>2.625473071810376</v>
+        <v>3.220726843036402</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02531768678754887</v>
+        <v>0.05969792970527266</v>
       </c>
       <c r="K17">
-        <v>1.234341931777607</v>
+        <v>1.009098785297027</v>
       </c>
       <c r="L17">
-        <v>0.3304360484862059</v>
+        <v>0.4749312553569212</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.581605158390147</v>
+        <v>1.676301822194972</v>
       </c>
       <c r="C18">
-        <v>0.0781982066539797</v>
+        <v>0.03696225237164441</v>
       </c>
       <c r="D18">
-        <v>0.3811943073943524</v>
+        <v>0.5464945480974848</v>
       </c>
       <c r="E18">
-        <v>0.09487467589554655</v>
+        <v>0.1720075311956428</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.624269095872194</v>
+        <v>4.548902648288362</v>
       </c>
       <c r="H18">
-        <v>2.592073545710349</v>
+        <v>3.21259393085495</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02529699430287913</v>
+        <v>0.05970630792538856</v>
       </c>
       <c r="K18">
-        <v>1.202610436098354</v>
+        <v>1.003722660706245</v>
       </c>
       <c r="L18">
-        <v>0.3243220150400106</v>
+        <v>0.4741180533200833</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.568752104268015</v>
+        <v>1.674268573704268</v>
       </c>
       <c r="C19">
-        <v>0.07776012615025962</v>
+        <v>0.03683613055769541</v>
       </c>
       <c r="D19">
-        <v>0.3790406372421842</v>
+        <v>0.5461530064809494</v>
       </c>
       <c r="E19">
-        <v>0.09450897908299183</v>
+        <v>0.1719658793554224</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.599441873133003</v>
+        <v>4.542452090457715</v>
       </c>
       <c r="H19">
-        <v>2.580820647064314</v>
+        <v>3.209851227469528</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02529016755852354</v>
+        <v>0.05970923206570333</v>
       </c>
       <c r="K19">
-        <v>1.191912288781651</v>
+        <v>1.001915436225801</v>
       </c>
       <c r="L19">
-        <v>0.3222629384847835</v>
+        <v>0.4738465675123678</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.626823215826704</v>
+        <v>1.683491576903236</v>
       </c>
       <c r="C20">
-        <v>0.07973599933593079</v>
+        <v>0.03740241376473108</v>
       </c>
       <c r="D20">
-        <v>0.3887770128192187</v>
+        <v>0.5477044691363915</v>
       </c>
       <c r="E20">
-        <v>0.0961637639392201</v>
+        <v>0.1721567954493288</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.711607420204331</v>
+        <v>4.571547490396</v>
       </c>
       <c r="H20">
-        <v>2.63168143385829</v>
+        <v>3.222237271121628</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02532160237906034</v>
+        <v>0.05969642059400293</v>
       </c>
       <c r="K20">
-        <v>1.240236792467442</v>
+        <v>1.010099979105632</v>
       </c>
       <c r="L20">
-        <v>0.331572942109446</v>
+        <v>0.4750835895015513</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.826275422669568</v>
+        <v>1.715759519992815</v>
       </c>
       <c r="C21">
-        <v>0.08646550388962027</v>
+        <v>0.03928290559744596</v>
       </c>
       <c r="D21">
-        <v>0.422321387838025</v>
+        <v>0.5531705812318819</v>
       </c>
       <c r="E21">
-        <v>0.1018920445383635</v>
+        <v>0.1728590574177069</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>5.096753155522322</v>
+        <v>4.670483351474672</v>
       </c>
       <c r="H21">
-        <v>2.806714473366242</v>
+        <v>3.26461652541974</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.02544011964848814</v>
+        <v>0.05965944836817805</v>
       </c>
       <c r="K21">
-        <v>1.406033605774127</v>
+        <v>1.038506229501763</v>
       </c>
       <c r="L21">
-        <v>0.3636732184941707</v>
+        <v>0.4795075274565903</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.96025204469413</v>
+        <v>1.737802013272244</v>
       </c>
       <c r="C22">
-        <v>0.09094792283271147</v>
+        <v>0.04049570471396891</v>
       </c>
       <c r="D22">
-        <v>0.4449296212916352</v>
+        <v>0.5569317308538189</v>
       </c>
       <c r="E22">
-        <v>0.1057729873141682</v>
+        <v>0.1733632790821744</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>5.35539133287574</v>
+        <v>4.736027218235336</v>
       </c>
       <c r="H22">
-        <v>2.924550663791592</v>
+        <v>3.292884720693678</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.02552772307320872</v>
+        <v>0.05963980068304942</v>
       </c>
       <c r="K22">
-        <v>1.517278975775525</v>
+        <v>1.057747915998334</v>
       </c>
       <c r="L22">
-        <v>0.3853298222871331</v>
+        <v>0.4825981977405576</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.888388375938007</v>
+        <v>1.725950296504493</v>
       </c>
       <c r="C23">
-        <v>0.08854672503356653</v>
+        <v>0.03984987551398689</v>
       </c>
       <c r="D23">
-        <v>0.4327960704487168</v>
+        <v>0.5549070745142615</v>
       </c>
       <c r="E23">
-        <v>0.1036883136942954</v>
+        <v>0.1730900302677831</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>5.216667048016518</v>
+        <v>4.700964079622395</v>
       </c>
       <c r="H23">
-        <v>2.861320552465259</v>
+        <v>3.277745111876072</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.02548000313876209</v>
+        <v>0.05964987447493897</v>
       </c>
       <c r="K23">
-        <v>1.457618671625369</v>
+        <v>1.047416337691942</v>
       </c>
       <c r="L23">
-        <v>0.3737048322891923</v>
+        <v>0.4809304162840959</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.623618828080083</v>
+        <v>1.682980277413634</v>
       </c>
       <c r="C24">
-        <v>0.07962719175133515</v>
+        <v>0.03737140023928021</v>
       </c>
       <c r="D24">
-        <v>0.3882393668880013</v>
+        <v>0.5476183165148569</v>
       </c>
       <c r="E24">
-        <v>0.09607228549115732</v>
+        <v>0.1721460823008449</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.70541845891745</v>
+        <v>4.569945285149288</v>
       </c>
       <c r="H24">
-        <v>2.628873642881928</v>
+        <v>3.221554219185151</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02531982887283135</v>
+        <v>0.05969710126779937</v>
       </c>
       <c r="K24">
-        <v>1.237570916580097</v>
+        <v>1.009647110568267</v>
       </c>
       <c r="L24">
-        <v>0.3310587556088507</v>
+        <v>0.4750146505977852</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.351161825007068</v>
+        <v>1.640726572948353</v>
       </c>
       <c r="C25">
-        <v>0.07026493618657526</v>
+        <v>0.03462646620668863</v>
       </c>
       <c r="D25">
-        <v>0.3427112843873772</v>
+        <v>0.5405673861048257</v>
       </c>
       <c r="E25">
-        <v>0.08837344011811155</v>
+        <v>0.171322617997717</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4.179008717783091</v>
+        <v>4.432383360631775</v>
       </c>
       <c r="H25">
-        <v>2.390732367531541</v>
+        <v>3.163383758584473</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.02518730639282296</v>
+        <v>0.05976749705834017</v>
       </c>
       <c r="K25">
-        <v>1.010562473417082</v>
+        <v>0.9718093786131021</v>
       </c>
       <c r="L25">
-        <v>0.2875534768943879</v>
+        <v>0.4694905344573215</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_144/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_144/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.613131879977203</v>
+        <v>1.159467523968004</v>
       </c>
       <c r="C2">
-        <v>0.03254137084699948</v>
+        <v>0.06349434341314009</v>
       </c>
       <c r="D2">
-        <v>0.5360727841023305</v>
+        <v>0.3109638795921086</v>
       </c>
       <c r="E2">
-        <v>0.1708840338005366</v>
+        <v>0.08307671685889417</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>4.334273712616181</v>
+        <v>3.808335086435051</v>
       </c>
       <c r="H2">
-        <v>3.122628807543634</v>
+        <v>2.224051152783318</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05983613487714567</v>
+        <v>0.02512110795762545</v>
       </c>
       <c r="K2">
-        <v>0.9464354327745923</v>
+        <v>0.8502978704485429</v>
       </c>
       <c r="L2">
-        <v>0.4661599263023533</v>
+        <v>0.2572598413417779</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.59662224576212</v>
+        <v>1.034081106211289</v>
       </c>
       <c r="C3">
-        <v>0.03108710629339839</v>
+        <v>0.05893978198958649</v>
       </c>
       <c r="D3">
-        <v>0.5334613920627191</v>
+        <v>0.2903795002102498</v>
       </c>
       <c r="E3">
-        <v>0.1706915957518476</v>
+        <v>0.07968765709692249</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.269737376638943</v>
+        <v>3.565664836757776</v>
       </c>
       <c r="H3">
-        <v>3.096292906208873</v>
+        <v>2.115549052243011</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0598931742378328</v>
+        <v>0.02509441301669746</v>
       </c>
       <c r="K3">
-        <v>0.9307856508188763</v>
+        <v>0.7451033540183971</v>
       </c>
       <c r="L3">
-        <v>0.4643624135668034</v>
+        <v>0.2376378452766232</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.587566230612936</v>
+        <v>0.9590224085762316</v>
       </c>
       <c r="C4">
-        <v>0.03017347245391022</v>
+        <v>0.05614759255874446</v>
       </c>
       <c r="D4">
-        <v>0.5320724504480552</v>
+        <v>0.2781480627067197</v>
       </c>
       <c r="E4">
-        <v>0.1706252048773784</v>
+        <v>0.07769643754897615</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4.231067275010247</v>
+        <v>3.42028155170766</v>
       </c>
       <c r="H4">
-        <v>3.080752974257052</v>
+        <v>2.050849666993713</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05993340117343315</v>
+        <v>0.02508657095389211</v>
       </c>
       <c r="K4">
-        <v>0.9219384899686958</v>
+        <v>0.68194330312528</v>
       </c>
       <c r="L4">
-        <v>0.4634856035968582</v>
+        <v>0.2259859921245564</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.584147832129872</v>
+        <v>0.9288793265499748</v>
       </c>
       <c r="C5">
-        <v>0.02979589736936816</v>
+        <v>0.05500916432287539</v>
       </c>
       <c r="D5">
-        <v>0.5315604184872456</v>
+        <v>0.2732590755954902</v>
       </c>
       <c r="E5">
-        <v>0.1706111845121221</v>
+        <v>0.07690629216549461</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>4.215548349340452</v>
+        <v>3.361865433939556</v>
       </c>
       <c r="H5">
-        <v>3.074578592190903</v>
+        <v>2.024929454477899</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.05995110500261447</v>
+        <v>0.02508546876311613</v>
       </c>
       <c r="K5">
-        <v>0.9185247973528163</v>
+        <v>0.6565299061574592</v>
       </c>
       <c r="L5">
-        <v>0.463185395522288</v>
+        <v>0.2213303443878445</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.58359664350121</v>
+        <v>0.9238997577197949</v>
       </c>
       <c r="C6">
-        <v>0.02973288192321633</v>
+        <v>0.05482004708528976</v>
       </c>
       <c r="D6">
-        <v>0.5314786571502879</v>
+        <v>0.2724528299956148</v>
       </c>
       <c r="E6">
-        <v>0.1706096442043545</v>
+        <v>0.07677634006278389</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>4.212985882648127</v>
+        <v>3.352213279100511</v>
       </c>
       <c r="H6">
-        <v>3.073562892224004</v>
+        <v>2.020651262412969</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.05995412396037558</v>
+        <v>0.02508541062320457</v>
       </c>
       <c r="K6">
-        <v>0.9179695290710441</v>
+        <v>0.6523286837242068</v>
       </c>
       <c r="L6">
-        <v>0.4631389963793993</v>
+        <v>0.2205626729848902</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.587519027327659</v>
+        <v>0.9586141431114754</v>
       </c>
       <c r="C7">
-        <v>0.03016840172158197</v>
+        <v>0.05613224382219784</v>
       </c>
       <c r="D7">
-        <v>0.5320653264105886</v>
+        <v>0.2780817506909727</v>
       </c>
       <c r="E7">
-        <v>0.1706249629945376</v>
+        <v>0.07768569675600645</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>4.230857012885906</v>
+        <v>3.419490478706649</v>
       </c>
       <c r="H7">
-        <v>3.080669063929378</v>
+        <v>2.050498342977392</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.05993363462240175</v>
+        <v>0.02508654768389285</v>
       </c>
       <c r="K7">
-        <v>0.9218916759184737</v>
+        <v>0.6815992979379217</v>
       </c>
       <c r="L7">
-        <v>0.4634813236245421</v>
+        <v>0.2259228385183292</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.607215099580458</v>
+        <v>1.115808165189208</v>
       </c>
       <c r="C8">
-        <v>0.03204420571842448</v>
+        <v>0.06192197959603973</v>
       </c>
       <c r="D8">
-        <v>0.5351278884634354</v>
+        <v>0.3037774204873074</v>
       </c>
       <c r="E8">
-        <v>0.1708069468786846</v>
+        <v>0.08188877078658052</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4.311822766586147</v>
+        <v>3.723861126837619</v>
       </c>
       <c r="H8">
-        <v>3.11341717883866</v>
+        <v>2.186217219382144</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0598547232127169</v>
+        <v>0.02511009413994181</v>
       </c>
       <c r="K8">
-        <v>0.9408812624154166</v>
+        <v>0.8137083200954009</v>
       </c>
       <c r="L8">
-        <v>0.4654930852100563</v>
+        <v>0.2504075592105153</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.654413203001923</v>
+        <v>1.441406239041441</v>
       </c>
       <c r="C9">
-        <v>0.03556087880696168</v>
+        <v>0.07339338727803124</v>
       </c>
       <c r="D9">
-        <v>0.5428342081960267</v>
+        <v>0.3577466212279035</v>
       </c>
       <c r="E9">
-        <v>0.1715739679647328</v>
+        <v>0.0909045420360215</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>4.478224038981551</v>
+        <v>4.353413974915725</v>
       </c>
       <c r="H9">
-        <v>3.182654660653043</v>
+        <v>2.469470185686248</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.059741178643268</v>
+        <v>0.02522687112770683</v>
       </c>
       <c r="K9">
-        <v>0.9841683127907004</v>
+        <v>1.085836314989621</v>
       </c>
       <c r="L9">
-        <v>0.4712368892178347</v>
+        <v>0.3019128265048465</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.694320666551278</v>
+        <v>1.694326665214419</v>
       </c>
       <c r="C10">
-        <v>0.03804962614378837</v>
+        <v>0.08202259625987551</v>
       </c>
       <c r="D10">
-        <v>0.5495327882580199</v>
+        <v>0.4001129770052927</v>
       </c>
       <c r="E10">
-        <v>0.1723869781512022</v>
+        <v>0.09809512638561912</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.605207976676638</v>
+        <v>4.841974086055501</v>
       </c>
       <c r="H10">
-        <v>3.236612618881139</v>
+        <v>2.690863143042208</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05968275524433153</v>
+        <v>0.0253599693830413</v>
       </c>
       <c r="K10">
-        <v>1.019669660551727</v>
+        <v>1.29637860002245</v>
       </c>
       <c r="L10">
-        <v>0.4765528716263105</v>
+        <v>0.3424165845055143</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.713613018287987</v>
+        <v>1.813148425746903</v>
       </c>
       <c r="C11">
-        <v>0.03916200327206099</v>
+        <v>0.08602488920984541</v>
       </c>
       <c r="D11">
-        <v>0.5528053819309093</v>
+        <v>0.4201092456318634</v>
       </c>
       <c r="E11">
-        <v>0.1728109128445965</v>
+        <v>0.1015131164908851</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>4.664021043613502</v>
+        <v>5.071408935885756</v>
       </c>
       <c r="H11">
-        <v>3.261837167379724</v>
+        <v>2.795179552461718</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0596615807053773</v>
+        <v>0.02543186006233178</v>
       </c>
       <c r="K11">
-        <v>1.036626118356025</v>
+        <v>1.395129032443322</v>
       </c>
       <c r="L11">
-        <v>0.4792092389602089</v>
+        <v>0.361555126246131</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.72108220831015</v>
+        <v>1.85875837611573</v>
       </c>
       <c r="C12">
-        <v>0.03958045059507498</v>
+        <v>0.08755463573368161</v>
       </c>
       <c r="D12">
-        <v>0.5540770231017405</v>
+        <v>0.4277977748739659</v>
       </c>
       <c r="E12">
-        <v>0.1729792124715281</v>
+        <v>0.1028307649939038</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>4.686443790066505</v>
+        <v>5.159465490962418</v>
       </c>
       <c r="H12">
-        <v>3.271487077020822</v>
+        <v>2.835266242847808</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.05965433726594505</v>
+        <v>0.02546081471587058</v>
       </c>
       <c r="K12">
-        <v>1.043163227420166</v>
+        <v>1.433013249764173</v>
       </c>
       <c r="L12">
-        <v>0.4802493545733597</v>
+        <v>0.3689174930696453</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.719466309863378</v>
+        <v>1.848906866494161</v>
       </c>
       <c r="C13">
-        <v>0.03949045346912783</v>
+        <v>0.08722449368264051</v>
       </c>
       <c r="D13">
-        <v>0.5538017126957016</v>
+        <v>0.4261365260744014</v>
       </c>
       <c r="E13">
-        <v>0.1729426210095752</v>
+        <v>0.1025459106767208</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>4.68160789745707</v>
+        <v>5.140446284810196</v>
       </c>
       <c r="H13">
-        <v>3.269404436295645</v>
+        <v>2.826605738210958</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05965586283796398</v>
+        <v>0.02545450010502748</v>
       </c>
       <c r="K13">
-        <v>1.041750180847401</v>
+        <v>1.424831370167482</v>
       </c>
       <c r="L13">
-        <v>0.4800238261839098</v>
+        <v>0.3673265469681155</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.714224234793477</v>
+        <v>1.816888016353118</v>
       </c>
       <c r="C14">
-        <v>0.03919648469101134</v>
+        <v>0.08615043926209864</v>
       </c>
       <c r="D14">
-        <v>0.5529093518049706</v>
+        <v>0.4207393778526978</v>
       </c>
       <c r="E14">
-        <v>0.1728246034156946</v>
+        <v>0.1016210392304693</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>4.665862734737175</v>
+        <v>5.078628998510737</v>
       </c>
       <c r="H14">
-        <v>3.262629106992449</v>
+        <v>2.798465393306401</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05966096926431419</v>
+        <v>0.02543420687082154</v>
       </c>
       <c r="K14">
-        <v>1.037161603720648</v>
+        <v>1.398235598240404</v>
       </c>
       <c r="L14">
-        <v>0.4792941245127906</v>
+        <v>0.3621584511869145</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.711034615087243</v>
+        <v>1.797357907940466</v>
       </c>
       <c r="C15">
-        <v>0.03901605922456497</v>
+        <v>0.08549449367276907</v>
       </c>
       <c r="D15">
-        <v>0.5523669711550951</v>
+        <v>0.4174490128112041</v>
       </c>
       <c r="E15">
-        <v>0.1727533250337139</v>
+        <v>0.1010576362397124</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>4.656238126251822</v>
+        <v>5.040921537994791</v>
       </c>
       <c r="H15">
-        <v>3.258491783566114</v>
+        <v>2.781306801522874</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05966419795440636</v>
+        <v>0.02542200529066641</v>
       </c>
       <c r="K15">
-        <v>1.03436608501309</v>
+        <v>1.382010634303555</v>
       </c>
       <c r="L15">
-        <v>0.4788516150222506</v>
+        <v>0.3590082151670515</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.693082763035278</v>
+        <v>1.686643247946392</v>
       </c>
       <c r="C16">
-        <v>0.03797653676435431</v>
+        <v>0.08176284090839658</v>
       </c>
       <c r="D16">
-        <v>0.5493234492900001</v>
+        <v>0.3988217582421214</v>
       </c>
       <c r="E16">
-        <v>0.1723603603227701</v>
+        <v>0.09787489244007119</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>4.601385557823534</v>
+        <v>4.827136313517087</v>
       </c>
       <c r="H16">
-        <v>3.234977820925423</v>
+        <v>2.684123827933604</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05968424759355884</v>
+        <v>0.02535550772333295</v>
       </c>
       <c r="K16">
-        <v>1.018577754409478</v>
+        <v>1.289990006379554</v>
       </c>
       <c r="L16">
-        <v>0.4763840602158211</v>
+        <v>0.3411812213704621</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.682361352523174</v>
+        <v>1.619737708168344</v>
       </c>
       <c r="C17">
-        <v>0.0373338009414681</v>
+        <v>0.07949537164954279</v>
       </c>
       <c r="D17">
-        <v>0.5475140510740744</v>
+        <v>0.3875882352591589</v>
       </c>
       <c r="E17">
-        <v>0.1721331337140484</v>
+        <v>0.09596151326913116</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>4.568004191476035</v>
+        <v>4.697922397958564</v>
       </c>
       <c r="H17">
-        <v>3.220726843036402</v>
+        <v>2.62547307181049</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05969792970527266</v>
+        <v>0.02531768678747603</v>
       </c>
       <c r="K17">
-        <v>1.009098785297027</v>
+        <v>1.234341931777635</v>
       </c>
       <c r="L17">
-        <v>0.4749312553569212</v>
+        <v>0.3304360484862201</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.676301822194972</v>
+        <v>1.58160515839046</v>
       </c>
       <c r="C18">
-        <v>0.03696225237164441</v>
+        <v>0.07819820665347521</v>
       </c>
       <c r="D18">
-        <v>0.5464945480974848</v>
+        <v>0.3811943073941535</v>
       </c>
       <c r="E18">
-        <v>0.1720075311956428</v>
+        <v>0.09487467589560339</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>4.548902648288362</v>
+        <v>4.624269095872137</v>
       </c>
       <c r="H18">
-        <v>3.21259393085495</v>
+        <v>2.592073545710321</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05970630792538856</v>
+        <v>0.02529699430297327</v>
       </c>
       <c r="K18">
-        <v>1.003722660706245</v>
+        <v>1.202610436098411</v>
       </c>
       <c r="L18">
-        <v>0.4741180533200833</v>
+        <v>0.3243220150400674</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.674268573704268</v>
+        <v>1.568752104268071</v>
       </c>
       <c r="C19">
-        <v>0.03683613055769541</v>
+        <v>0.07776012615029515</v>
       </c>
       <c r="D19">
-        <v>0.5461530064809494</v>
+        <v>0.3790406372424542</v>
       </c>
       <c r="E19">
-        <v>0.1719658793554224</v>
+        <v>0.09450897908300959</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>4.542452090457715</v>
+        <v>4.599441873133031</v>
       </c>
       <c r="H19">
-        <v>3.209851227469528</v>
+        <v>2.580820647064286</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05970923206570333</v>
+        <v>0.02529016755863722</v>
       </c>
       <c r="K19">
-        <v>1.001915436225801</v>
+        <v>1.191912288781651</v>
       </c>
       <c r="L19">
-        <v>0.4738465675123678</v>
+        <v>0.3222629384848261</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.683491576903236</v>
+        <v>1.626823215826761</v>
       </c>
       <c r="C20">
-        <v>0.03740241376473108</v>
+        <v>0.07973599933597342</v>
       </c>
       <c r="D20">
-        <v>0.5477044691363915</v>
+        <v>0.3887770128194319</v>
       </c>
       <c r="E20">
-        <v>0.1721567954493288</v>
+        <v>0.09616376393923431</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>4.571547490396</v>
+        <v>4.711607420204274</v>
       </c>
       <c r="H20">
-        <v>3.222237271121628</v>
+        <v>2.63168143385829</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05969642059400293</v>
+        <v>0.02532160237917935</v>
       </c>
       <c r="K20">
-        <v>1.010099979105632</v>
+        <v>1.240236792467357</v>
       </c>
       <c r="L20">
-        <v>0.4750835895015513</v>
+        <v>0.3315729421095739</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.715759519992815</v>
+        <v>1.826275422669397</v>
       </c>
       <c r="C21">
-        <v>0.03928290559744596</v>
+        <v>0.0864655038901887</v>
       </c>
       <c r="D21">
-        <v>0.5531705812318819</v>
+        <v>0.4223213878379397</v>
       </c>
       <c r="E21">
-        <v>0.1728590574177069</v>
+        <v>0.1018920445384062</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>4.670483351474672</v>
+        <v>5.096753155522151</v>
       </c>
       <c r="H21">
-        <v>3.26461652541974</v>
+        <v>2.806714473366128</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05965944836817805</v>
+        <v>0.02544011964849879</v>
       </c>
       <c r="K21">
-        <v>1.038506229501763</v>
+        <v>1.406033605774041</v>
       </c>
       <c r="L21">
-        <v>0.4795075274565903</v>
+        <v>0.3636732184941849</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.737802013272244</v>
+        <v>1.960252044694073</v>
       </c>
       <c r="C22">
-        <v>0.04049570471396891</v>
+        <v>0.09094792283246989</v>
       </c>
       <c r="D22">
-        <v>0.5569317308538189</v>
+        <v>0.4449296212913509</v>
       </c>
       <c r="E22">
-        <v>0.1733632790821744</v>
+        <v>0.1057729873142499</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>4.736027218235336</v>
+        <v>5.355391332875797</v>
       </c>
       <c r="H22">
-        <v>3.292884720693678</v>
+        <v>2.924550663791365</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05963980068304942</v>
+        <v>0.02552772307326379</v>
       </c>
       <c r="K22">
-        <v>1.057747915998334</v>
+        <v>1.517278975775469</v>
       </c>
       <c r="L22">
-        <v>0.4825981977405576</v>
+        <v>0.3853298222870762</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.725950296504493</v>
+        <v>1.888388375938092</v>
       </c>
       <c r="C23">
-        <v>0.03984987551398689</v>
+        <v>0.0885467250336589</v>
       </c>
       <c r="D23">
-        <v>0.5549070745142615</v>
+        <v>0.4327960704487168</v>
       </c>
       <c r="E23">
-        <v>0.1730900302677831</v>
+        <v>0.103688313694267</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>4.700964079622395</v>
+        <v>5.216667048016461</v>
       </c>
       <c r="H23">
-        <v>3.277745111876072</v>
+        <v>2.861320552465202</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05964987447493897</v>
+        <v>0.02548000313867504</v>
       </c>
       <c r="K23">
-        <v>1.047416337691942</v>
+        <v>1.457618671625369</v>
       </c>
       <c r="L23">
-        <v>0.4809304162840959</v>
+        <v>0.3737048322892207</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.682980277413634</v>
+        <v>1.623618828080026</v>
       </c>
       <c r="C24">
-        <v>0.03737140023928021</v>
+        <v>0.07962719175157673</v>
       </c>
       <c r="D24">
-        <v>0.5476183165148569</v>
+        <v>0.3882393668876034</v>
       </c>
       <c r="E24">
-        <v>0.1721460823008449</v>
+        <v>0.09607228549112889</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>4.569945285149288</v>
+        <v>4.705418458917421</v>
       </c>
       <c r="H24">
-        <v>3.221554219185151</v>
+        <v>2.628873642881928</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05969710126779937</v>
+        <v>0.02531982887285444</v>
       </c>
       <c r="K24">
-        <v>1.009647110568267</v>
+        <v>1.237570916579955</v>
       </c>
       <c r="L24">
-        <v>0.4750146505977852</v>
+        <v>0.3310587556087796</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.640726572948353</v>
+        <v>1.35116182500721</v>
       </c>
       <c r="C25">
-        <v>0.03462646620668863</v>
+        <v>0.07026493618683816</v>
       </c>
       <c r="D25">
-        <v>0.5405673861048257</v>
+        <v>0.3427112843873772</v>
       </c>
       <c r="E25">
-        <v>0.171322617997717</v>
+        <v>0.0883734401181151</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>4.432383360631775</v>
+        <v>4.179008717783148</v>
       </c>
       <c r="H25">
-        <v>3.163383758584473</v>
+        <v>2.390732367531456</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05976749705834017</v>
+        <v>0.0251873063929331</v>
       </c>
       <c r="K25">
-        <v>0.9718093786131021</v>
+        <v>1.01056247341711</v>
       </c>
       <c r="L25">
-        <v>0.4694905344573215</v>
+        <v>0.2875534768943737</v>
       </c>
       <c r="M25">
         <v>0</v>
